--- a/uploads/processed_template.xlsx
+++ b/uploads/processed_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2880" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
@@ -16,13 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <color rgb="FFE2E2E5"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,170 +431,138 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col width="19.85546875" customWidth="1" min="1" max="1"/>
-    <col width="20.42578125" customWidth="1" min="2" max="2"/>
-    <col width="20.5703125" customWidth="1" min="3" max="3"/>
-    <col width="12.5703125" customWidth="1" min="4" max="4"/>
-    <col width="5.5703125" customWidth="1" min="5" max="5"/>
-    <col width="13.85546875" customWidth="1" min="6" max="6"/>
-    <col width="5.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="17.42578125" customWidth="1" min="8" max="8"/>
-    <col width="16.85546875" customWidth="1" min="12" max="12"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Fecha de factura</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Numero de factura</t>
+          <t>Nombre/Razón Social</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Fecha de vencimiento</t>
+          <t>NIT/CI/CEX</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>Factura Nº</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>NIF</t>
+          <t>Cód. Autorización</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>CP y ciudad</t>
+          <t>Monto a Pagar Bs</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Nombre del Emisor</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Dirección</t>
+          <t>NIT del Emisor</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>CIF</t>
+          <t>Dirección del Emisor</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>CP y ciudad</t>
+          <t>Teléfono del Emisor</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Ciudad</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Base imponible</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>IVA</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
+          <t>País</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17/04/2024</t>
+          <t>2025-08-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-0001</t>
+          <t>Miguel Sorich Rojas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17/05/2024</t>
+          <t>3927534</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Calle San Juan de la Luz, s/n</t>
+          <t>001984</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39000001A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>28001, Madrid</t>
-        </is>
+          <t>101D5CBB1BF21A</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>110</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>info@empresalogisitasl.com</t>
+          <t>Maria Reyna Guzman Bejarano</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Calle San Juan de la Luz, s/n</t>
+          <t>6255258016</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>B12345678</t>
+          <t>En La Esquina Del Hospital Municipal De Cotoca Por La Entrada De Emergencia Rodolfo Añez, Nro.: S/N Zona/Barrio.: COTOCA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>28001, Madrid</t>
+          <t>750-19242</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>info@empresalogisitasl.com</t>
+          <t>Cotoca</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.451 €</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>304,71 €</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1.755,71 €</t>
+          <t>Bolivia</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/uploads/processed_template.xlsx
+++ b/uploads/processed_template.xlsx
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>26/08/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -517,10 +517,8 @@
           <t>3927534</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>001984</t>
-        </is>
+      <c r="D2" t="n">
+        <v>1984</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -535,14 +533,12 @@
           <t>Maria Reyna Guzman Bejarano</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>6255258016</t>
-        </is>
+      <c r="H2" t="n">
+        <v>6255258016</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>En La Esquina Del Hospital Municipal De Cotoca Por La Entrada De Emergencia Rodolfo Añez, Nro.: S/N Zona/Barrio.: COTOCA</t>
+          <t>En La Esquina Del Hospital Municipal De Cotoca Por La Entrada De Emergencia Rodolfo Añez Nro.: S/N Zona/Barrio.: COTOCA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">

--- a/uploads/processed_template.xlsx
+++ b/uploads/processed_template.xlsx
@@ -2,33 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registro de Compras" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Registro de Ventas" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Courier New"/>
-      <family val="3"/>
-      <color rgb="FFE2E2E5"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -51,14 +47,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -131,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -141,44 +136,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -205,32 +200,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -257,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,142 +245,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -431,134 +414,391 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nº</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Nombre/Razón Social</t>
+          <t>ESPECIFICACION</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>NIT/CI/CEX</t>
+          <t>NIT PROVEEDOR</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Factura Nº</t>
+          <t>RAZON SOCIAL PROVEEDOR</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Cód. Autorización</t>
+          <t>CODIGO DE AUTORIZACION</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Monto a Pagar Bs</t>
+          <t>NUMERO FACTURA</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Nombre del Emisor</t>
+          <t>NUMERO DUI/DIM</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>NIT del Emisor</t>
+          <t>FECHA DE FACTURA/DUI/DIM</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Dirección del Emisor</t>
+          <t>IMPORTE TOTAL COMPRA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Teléfono del Emisor</t>
+          <t>IMPORTE ICE</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Ciudad</t>
+          <t>IMPORTE IEHD</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>País</t>
+          <t>IMPORTE IPJ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>TASAS</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>OTRO NO SUJETO A CREDITO FISCAL</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>IMPORTES EXENTOS</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>IMPORTE COMPRAS GRAVADAS A TASA CERO</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>DESCUENTOS/BONIFICACIONES /REBAJAS SUJETAS AL IVA</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IMPORTE GIFT CARD</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IMPORTE BASE CF</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>CREDITO FISCAL</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>TIPO COMPRA</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>CODIGO DE CONTROL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>26/08/2025</t>
+          <t>ERROR: factura example.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Miguel Sorich Rojas</t>
+          <t>Respuesta no válida de la IA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3927534</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1984</v>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>101D5CBB1BF21A</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>110</v>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Maria Reyna Guzman Bejarano</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6255258016</v>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>En La Esquina Del Hospital Municipal De Cotoca Por La Entrada De Emergencia Rodolfo Añez Nro.: S/N Zona/Barrio.: COTOCA</t>
+          <t>Respuesta no válida de la IA</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>750-19242</t>
+          <t>Respuesta no válida de la IA</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Cotoca</t>
+          <t>Respuesta no válida de la IA</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>Respuesta no válida de la IA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nº</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ESPECIFICACION</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>FECHA DE LA FACTURA</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>N° DE LA FACTURA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>CODIGO DE AUTORIZACION</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>NIT / CI CLIENTE</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>COMPLEMENTO</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>NOMBRE O RAZON SOCIAL</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>IMPORTE TOTAL DE LA VENTA</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>IMPORTE ICE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>IMPORTE IEHD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>IMPORTE IPJ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>TASAS</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>OTROS NO SUJETOS AL IVA</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>EXPORTACIONES Y OPERACIONES EXENTAS</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>VENTAS GRAVADAS A TASA CERO</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>DESCUENTOS, BONIFICACIONES Y REBAJAS SUJETAS AL IVA</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>IMPORTE GIFT CARD</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>IMPORTE BASE PARA DEBITO FISCAL</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>DEBITO FISCAL</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>ESTADO</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>CODIGO DE CONTROL</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>TIPO DE VENTA</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>